--- a/PerformanceData/RTDR_Performance_SurfacePro4_20190907101734.xlsx
+++ b/PerformanceData/RTDR_Performance_SurfacePro4_20190907101734.xlsx
@@ -2896,8 +2896,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9657249860607056E-2"/>
-                  <c:y val="-3.5953883627778724E-2"/>
+                  <c:x val="3.4199240259871172E-2"/>
+                  <c:y val="-3.6067798025836068E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2906,7 +2906,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -2919,17 +2919,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>y = 0.0073x + 41.685</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>R² = 0.9746</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2946,7 +2946,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -3392,7 +3392,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -3412,7 +3412,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3422,8 +3422,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9657249860607056E-2"/>
-                  <c:y val="0.15909698684510221"/>
+                  <c:x val="3.6369047680065825E-2"/>
+                  <c:y val="0.17571430503606614"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3432,7 +3432,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -3445,17 +3445,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>y = 0.0045x + 16.928</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>R² = 0.9854</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3472,7 +3472,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -3944,7 +3944,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3957,7 +3957,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
                     <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
@@ -3979,7 +3979,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4017,7 +4017,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4064,7 +4064,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4077,7 +4077,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
                     <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
@@ -4099,7 +4099,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4137,7 +4137,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
